--- a/experiments/preprocessing/debug_splits/raw_train_split.xlsx
+++ b/experiments/preprocessing/debug_splits/raw_train_split.xlsx
@@ -677,9 +677,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>41</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>0</v>
       </c>
@@ -1441,9 +1439,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
         <v>0</v>
       </c>
@@ -1671,9 +1667,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>18</v>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
         <v>1</v>
       </c>
@@ -1743,9 +1737,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>45</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -2159,9 +2151,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>55</v>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
         <v>0</v>
       </c>
@@ -2235,9 +2225,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>21</v>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
         <v>0</v>
       </c>
@@ -2375,9 +2363,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>45</v>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
         <v>1</v>
       </c>
@@ -2709,9 +2695,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>14</v>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
         <v>0</v>
       </c>
@@ -3597,9 +3581,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>23</v>
-      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
         <v>0</v>
       </c>
@@ -4533,9 +4515,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>30</v>
-      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="n">
         <v>0</v>
       </c>
@@ -4643,9 +4623,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v>36</v>
-      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="n">
         <v>0</v>
       </c>
@@ -4787,9 +4765,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>36</v>
-      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="n">
         <v>0</v>
       </c>
@@ -4969,9 +4945,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v>20</v>
-      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="n">
         <v>0</v>
       </c>
@@ -5005,9 +4979,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>42</v>
-      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="n">
         <v>0</v>
       </c>
@@ -5337,9 +5309,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D132" t="n">
-        <v>25</v>
-      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="n">
         <v>0</v>
       </c>
@@ -5627,9 +5597,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>36</v>
-      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="n">
         <v>0</v>
       </c>
@@ -5849,9 +5817,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D146" t="n">
-        <v>64</v>
-      </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="n">
         <v>1</v>
       </c>
@@ -5925,9 +5891,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D148" t="n">
-        <v>21</v>
-      </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="n">
         <v>0</v>
       </c>
@@ -6073,9 +6037,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D152" t="n">
-        <v>20</v>
-      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="n">
         <v>0</v>
       </c>
@@ -6621,9 +6583,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D167" t="n">
-        <v>26</v>
-      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="n">
         <v>0</v>
       </c>
@@ -7593,9 +7553,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D193" t="n">
-        <v>13</v>
-      </c>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="n">
         <v>4</v>
       </c>
@@ -9011,9 +8969,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D232" t="n">
-        <v>60</v>
-      </c>
+      <c r="D232" t="inlineStr"/>
       <c r="E232" t="n">
         <v>0</v>
       </c>
@@ -9379,9 +9335,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D242" t="n">
-        <v>33</v>
-      </c>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="n">
         <v>1</v>
       </c>
@@ -9597,9 +9551,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D248" t="n">
-        <v>39</v>
-      </c>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="n">
         <v>0</v>
       </c>
